--- a/DatosEsp1/Jornada33Esp.xlsx
+++ b/DatosEsp1/Jornada33Esp.xlsx
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -426,10 +426,10 @@
         <v>1.87</v>
       </c>
       <c r="D1">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E1">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D2">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -474,13 +474,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>4.3499999999999996</v>
+        <v>3.75</v>
       </c>
       <c r="E4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -491,13 +491,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E5">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -508,13 +508,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="D6">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="E6">
-        <v>4.05</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -525,13 +525,13 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="D7">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E7">
-        <v>2.35</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -542,13 +542,13 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="D8">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="E8">
-        <v>5.0999999999999996</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -562,10 +562,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E9">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -576,10 +576,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="D10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E10">
         <v>4.0999999999999996</v>
